--- a/src/main/resources/static/template/salary1.xlsx
+++ b/src/main/resources/static/template/salary1.xlsx
@@ -41,9 +41,6 @@
     <t>工资额</t>
   </si>
   <si>
-    <t>职业</t>
-  </si>
-  <si>
     <t>房补</t>
   </si>
   <si>
@@ -93,9 +90,6 @@
   </si>
   <si>
     <t>应领B卡</t>
-  </si>
-  <si>
-    <t>煤气费</t>
   </si>
   <si>
     <t>养老</t>
@@ -147,6 +141,14 @@
   </si>
   <si>
     <t>实领工资</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工龄工资</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>个税</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -546,7 +548,7 @@
       <pane xSplit="3" ySplit="3" topLeftCell="T4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AE1" sqref="AE1:AF1048576"/>
+      <selection pane="bottomRight" activeCell="X7" sqref="X7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -591,85 +593,85 @@
         <v>4</v>
       </c>
       <c r="F1" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="Q1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="S1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="T1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="6" t="s">
+      <c r="U1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="V1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="W1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="6" t="s">
+      <c r="X1" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="5" t="s">
+      <c r="Z1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="AA1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="AB1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB1" s="3" t="s">
-        <v>27</v>
-      </c>
       <c r="AC1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="AD1" s="3" t="s">
-        <v>39</v>
-      </c>
       <c r="AE1" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF1" s="8" t="s">
         <v>36</v>
-      </c>
-      <c r="AF1" s="8" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:32" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
@@ -818,38 +820,38 @@
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.15">
       <c r="B12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.15">
       <c r="B13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C16" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="3:28" x14ac:dyDescent="0.15">
       <c r="C17" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="3:28" x14ac:dyDescent="0.15">
       <c r="C18" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AB18" t="e">
         <f>#REF!+#REF!+#REF!+#REF!+#REF!+#REF!+#REF!+#REF!+#REF!+#REF!+#REF!+#REF!</f>

--- a/src/main/resources/static/template/salary1.xlsx
+++ b/src/main/resources/static/template/salary1.xlsx
@@ -38,9 +38,6 @@
     <t>月工资</t>
   </si>
   <si>
-    <t>工资额</t>
-  </si>
-  <si>
     <t>房补</t>
   </si>
   <si>
@@ -149,6 +146,10 @@
   </si>
   <si>
     <t>个税</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>保留工资</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -545,10 +546,10 @@
   <dimension ref="A1:AF18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="T4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="X7" sqref="X7"/>
+      <selection pane="bottomRight" activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -556,8 +557,9 @@
     <col min="1" max="1" width="9.625" customWidth="1"/>
     <col min="2" max="2" width="11.625" customWidth="1"/>
     <col min="3" max="3" width="27.375" customWidth="1"/>
-    <col min="4" max="5" width="7.375" customWidth="1"/>
-    <col min="6" max="6" width="6.375" customWidth="1"/>
+    <col min="4" max="4" width="7.375" customWidth="1"/>
+    <col min="5" max="5" width="11.125" customWidth="1"/>
+    <col min="6" max="6" width="11" customWidth="1"/>
     <col min="7" max="9" width="5.375" customWidth="1"/>
     <col min="10" max="10" width="9.375" customWidth="1"/>
     <col min="11" max="13" width="7.375" customWidth="1"/>
@@ -590,88 +592,88 @@
         <v>3</v>
       </c>
       <c r="E1" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="H1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="T1" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="W1" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="X1" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="G1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="U1" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="V1" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="W1" s="6" t="s">
+      <c r="Y1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="X1" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y1" s="3" t="s">
+      <c r="Z1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="AA1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AB1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="AB1" s="3" t="s">
-        <v>25</v>
-      </c>
       <c r="AC1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE1" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="AF1" s="8" t="s">
         <v>35</v>
-      </c>
-      <c r="AD1" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="AE1" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="AF1" s="8" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:32" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
@@ -820,38 +822,38 @@
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" t="s">
         <v>26</v>
-      </c>
-      <c r="B11" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.15">
       <c r="B12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.15">
       <c r="B13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" t="s">
         <v>30</v>
-      </c>
-      <c r="C16" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="17" spans="3:28" x14ac:dyDescent="0.15">
       <c r="C17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="3:28" x14ac:dyDescent="0.15">
       <c r="C18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AB18" t="e">
         <f>#REF!+#REF!+#REF!+#REF!+#REF!+#REF!+#REF!+#REF!+#REF!+#REF!+#REF!+#REF!</f>
